--- a/data/hotels_by_city/Dallas/Dallas_shard_643.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_643.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="97">
   <si>
     <t>STR#</t>
   </si>
@@ -145,6 +145,176 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/27/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106512-r606646393-Quality_Inn_West_Plano_Dallas-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>56463</t>
+  </si>
+  <si>
+    <t>106512</t>
+  </si>
+  <si>
+    <t>606646393</t>
+  </si>
+  <si>
+    <t>08/15/2018</t>
+  </si>
+  <si>
+    <t>Needed a last minute Hotel</t>
+  </si>
+  <si>
+    <t>I work in Plano and needed a last minute Hotel. Looked through Google search for the current pricing. This Hotel had room at $56.00 so I called directly in and spoke with a nice pleasant male and he stated that the search always gives 2 weeks in advance pricing to change the dates. So I did and it still gave me $56.00. I then leave the office to go to the Hotel and when I arrive he says its $70.00 that $56.00 is not the price. I was so furious but also tired I took the room as I did have time to get in my car and continue looking as I need to take a shower and get some work done.
+I will never stay here again or recommend the Hotel. There are better Hotels at $70.00 to 90.00 range. I could have just called my company and had Concur services book me at the Hilton or Hyatt which are company used Hotels. This is what happens when you are tired and lazy. I hate to be lied to when other bookings sites are stating your price is one thing and you do not honor those prices. I even varied again after speaking with someone on the phone and the site still stated $56.00 
+I rather continue to stay at 4-star Hotels you get what you pay for. 
+Hotel Rating Definition:
+**Two Star. Typically smaller hotels managed by the...I work in Plano and needed a last minute Hotel. Looked through Google search for the current pricing. This Hotel had room at $56.00 so I called directly in and spoke with a nice pleasant male and he stated that the search always gives 2 weeks in advance pricing to change the dates. So I did and it still gave me $56.00. I then leave the office to go to the Hotel and when I arrive he says its $70.00 that $56.00 is not the price. I was so furious but also tired I took the room as I did have time to get in my car and continue looking as I need to take a shower and get some work done.I will never stay here again or recommend the Hotel. There are better Hotels at $70.00 to 90.00 range. I could have just called my company and had Concur services book me at the Hilton or Hyatt which are company used Hotels. This is what happens when you are tired and lazy. I hate to be lied to when other bookings sites are stating your price is one thing and you do not honor those prices. I even varied again after speaking with someone on the phone and the site still stated $56.00 I rather continue to stay at 4-star Hotels you get what you pay for. Hotel Rating Definition:**Two Star. Typically smaller hotels managed by the proprietor. The hotel is often 2 - 4 stories high and usually has a more personal atmosphere. It′s usually located near affordable attractions, major intersections and convenient to public transportation. Furnishings and facilities are clean but basic.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Nerissa M, Guest Relations Manager at Quality Inn West Plano - Dallas, responded to this reviewResponded 1 week ago</t>
+  </si>
+  <si>
+    <t>Responded 1 week ago</t>
+  </si>
+  <si>
+    <t>I work in Plano and needed a last minute Hotel. Looked through Google search for the current pricing. This Hotel had room at $56.00 so I called directly in and spoke with a nice pleasant male and he stated that the search always gives 2 weeks in advance pricing to change the dates. So I did and it still gave me $56.00. I then leave the office to go to the Hotel and when I arrive he says its $70.00 that $56.00 is not the price. I was so furious but also tired I took the room as I did have time to get in my car and continue looking as I need to take a shower and get some work done.
+I will never stay here again or recommend the Hotel. There are better Hotels at $70.00 to 90.00 range. I could have just called my company and had Concur services book me at the Hilton or Hyatt which are company used Hotels. This is what happens when you are tired and lazy. I hate to be lied to when other bookings sites are stating your price is one thing and you do not honor those prices. I even varied again after speaking with someone on the phone and the site still stated $56.00 
+I rather continue to stay at 4-star Hotels you get what you pay for. 
+Hotel Rating Definition:
+**Two Star. Typically smaller hotels managed by the...I work in Plano and needed a last minute Hotel. Looked through Google search for the current pricing. This Hotel had room at $56.00 so I called directly in and spoke with a nice pleasant male and he stated that the search always gives 2 weeks in advance pricing to change the dates. So I did and it still gave me $56.00. I then leave the office to go to the Hotel and when I arrive he says its $70.00 that $56.00 is not the price. I was so furious but also tired I took the room as I did have time to get in my car and continue looking as I need to take a shower and get some work done.I will never stay here again or recommend the Hotel. There are better Hotels at $70.00 to 90.00 range. I could have just called my company and had Concur services book me at the Hilton or Hyatt which are company used Hotels. This is what happens when you are tired and lazy. I hate to be lied to when other bookings sites are stating your price is one thing and you do not honor those prices. I even varied again after speaking with someone on the phone and the site still stated $56.00 I rather continue to stay at 4-star Hotels you get what you pay for. Hotel Rating Definition:**Two Star. Typically smaller hotels managed by the proprietor. The hotel is often 2 - 4 stories high and usually has a more personal atmosphere. It′s usually located near affordable attractions, major intersections and convenient to public transportation. Furnishings and facilities are clean but basic.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106512-r588540201-Quality_Inn_West_Plano_Dallas-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>588540201</t>
+  </si>
+  <si>
+    <t>06/18/2018</t>
+  </si>
+  <si>
+    <t>Forget Staying Here</t>
+  </si>
+  <si>
+    <t>Okay, so I needed a hotel close sue to a wedding and I used my choice Privileges and booked this hotel.  reviews seemed to be good on choice hotels so I booked it.  Wrong choice.  this hotel was old, they have not even upgraded the inside let alone the outside.  The staff at the desk were in a hurry to check me in, probably before I changed my mind.  Anyway the cleaning staff talk about scary, I did not dare leave anything of value in the room because I was not sure it would be there when I got back.  clean staff were always out on a smoke break, and one day I never even got my room made up.  Now talk about dirty, the bathroom was scary and I wore my socks because I was afraid of what maybe on the floor.  Bad Experience all the way around.  When I did the survey from the hotel and said these things all they said was come back and let us show you a better experience.  NOT HAPPENING!!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Nerissa M, Guest Relations Manager at Quality Inn West Plano - Dallas, responded to this reviewResponded June 18, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 18, 2018</t>
+  </si>
+  <si>
+    <t>Okay, so I needed a hotel close sue to a wedding and I used my choice Privileges and booked this hotel.  reviews seemed to be good on choice hotels so I booked it.  Wrong choice.  this hotel was old, they have not even upgraded the inside let alone the outside.  The staff at the desk were in a hurry to check me in, probably before I changed my mind.  Anyway the cleaning staff talk about scary, I did not dare leave anything of value in the room because I was not sure it would be there when I got back.  clean staff were always out on a smoke break, and one day I never even got my room made up.  Now talk about dirty, the bathroom was scary and I wore my socks because I was afraid of what maybe on the floor.  Bad Experience all the way around.  When I did the survey from the hotel and said these things all they said was come back and let us show you a better experience.  NOT HAPPENING!!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106512-r587447455-Quality_Inn_West_Plano_Dallas-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>587447455</t>
+  </si>
+  <si>
+    <t>06/14/2018</t>
+  </si>
+  <si>
+    <t>Great accomodations, very nice room</t>
+  </si>
+  <si>
+    <t>I enjoyed the room, breakfast, cleanliness, and friendliness of the staff. My check-in was quick, preference of floor was honored and overall it was a great visit. I travel to Plano a few times a year to visit my grandkids and we love to have a cozy room with amenities to enjoy having our own staycation for them. MoreShow less</t>
+  </si>
+  <si>
+    <t>I enjoyed the room, breakfast, cleanliness, and friendliness of the staff. My check-in was quick, preference of floor was honored and overall it was a great visit. I travel to Plano a few times a year to visit my grandkids and we love to have a cozy room with amenities to enjoy having our own staycation for them. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106512-r580012199-Quality_Inn_West_Plano_Dallas-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>580012199</t>
+  </si>
+  <si>
+    <t>05/13/2018</t>
+  </si>
+  <si>
+    <t>Everything you need</t>
+  </si>
+  <si>
+    <t>We chose this hotel because of its proximity to Baylor Hospital--Plano.  The room was updated, very ample, had lots of places to sit, very clean, and a good breakfast!  There are lots of good restaurants very close by. We would definitely stay again!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>Nerissa M, Guest Relations Manager at Quality Inn West Plano - Dallas, responded to this reviewResponded May 17, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 17, 2018</t>
+  </si>
+  <si>
+    <t>We chose this hotel because of its proximity to Baylor Hospital--Plano.  The room was updated, very ample, had lots of places to sit, very clean, and a good breakfast!  There are lots of good restaurants very close by. We would definitely stay again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106512-r562708340-Quality_Inn_West_Plano_Dallas-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>562708340</t>
+  </si>
+  <si>
+    <t>02/25/2018</t>
+  </si>
+  <si>
+    <t>Been Here Four Days and Doing Fine</t>
+  </si>
+  <si>
+    <t>Don’t count this hotel out.  It is in transition from a Fairbridge? to a Quality Inn with a NEW OWNER in the past couple of weeks.  He is young, enthusiastic and immediately addressed any complaints and issues that we had on arrival. Still no elevator to 2nd floor but our first floor room is very clean and comfortable.  Close to my expectations of a Quality Inn. Amenities are there and appreciated. BOTTOM LINE is that I’m a 3+ star hotel gal visiting from the East and for the great transition price I have been happy with location, staff and accommodations.  MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Tina M, Guest Relations Manager at Quality Inn West Plano - Dallas, responded to this reviewResponded March 1, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 1, 2018</t>
+  </si>
+  <si>
+    <t>Don’t count this hotel out.  It is in transition from a Fairbridge? to a Quality Inn with a NEW OWNER in the past couple of weeks.  He is young, enthusiastic and immediately addressed any complaints and issues that we had on arrival. Still no elevator to 2nd floor but our first floor room is very clean and comfortable.  Close to my expectations of a Quality Inn. Amenities are there and appreciated. BOTTOM LINE is that I’m a 3+ star hotel gal visiting from the East and for the great transition price I have been happy with location, staff and accommodations.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106512-r559644777-Quality_Inn_West_Plano_Dallas-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>559644777</t>
+  </si>
+  <si>
+    <t>02/10/2018</t>
+  </si>
+  <si>
+    <t>Not as Advertised</t>
+  </si>
+  <si>
+    <t>Upon check-in we discovered that the elevator was out of service and we were told that because we were checking-in two hours early that we had to take a room on the second floor. Wow...no rooms available on the first floor. Hmmm..the parking lot was almost empty. Then we were assigned a room with an obstructed view of the porte co`chere. When we requested another room with a view we were told that one was not available. Really...upon my insistence we were assigned another room. Needless to say lugging our bags up two flights of stairs was exhausting. What an inconvenience this was. Can't wait to drag them back down. Had we not made this reservation thru a booking service we never would have stayed here. A lesson learned.MoreShow less</t>
+  </si>
+  <si>
+    <t>Upon check-in we discovered that the elevator was out of service and we were told that because we were checking-in two hours early that we had to take a room on the second floor. Wow...no rooms available on the first floor. Hmmm..the parking lot was almost empty. Then we were assigned a room with an obstructed view of the porte co`chere. When we requested another room with a view we were told that one was not available. Really...upon my insistence we were assigned another room. Needless to say lugging our bags up two flights of stairs was exhausting. What an inconvenience this was. Can't wait to drag them back down. Had we not made this reservation thru a booking service we never would have stayed here. A lesson learned.More</t>
   </si>
 </sst>
 </file>
@@ -645,6 +815,384 @@
         <v>42</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>30570</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="n">
+        <v>3</v>
+      </c>
+      <c r="R2" t="s"/>
+      <c r="S2" t="n">
+        <v>3</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>30570</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>61</v>
+      </c>
+      <c r="O3" t="s">
+        <v>62</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>2</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>30570</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s"/>
+      <c r="O4" t="s"/>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>63</v>
+      </c>
+      <c r="X4" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>30570</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>4</v>
+      </c>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>4</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>78</v>
+      </c>
+      <c r="X5" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>30570</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K6" t="s">
+        <v>84</v>
+      </c>
+      <c r="L6" t="s">
+        <v>85</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>86</v>
+      </c>
+      <c r="O6" t="s">
+        <v>87</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>88</v>
+      </c>
+      <c r="X6" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>30570</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>92</v>
+      </c>
+      <c r="J7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K7" t="s">
+        <v>94</v>
+      </c>
+      <c r="L7" t="s">
+        <v>95</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="s">
+        <v>86</v>
+      </c>
+      <c r="O7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>88</v>
+      </c>
+      <c r="X7" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>96</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>